--- a/DATA/1-CONTROL-APP.xlsx
+++ b/DATA/1-CONTROL-APP.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>nam_data</t>
   </si>
@@ -75,6 +75,42 @@
   </si>
   <si>
     <t>DATA/mod_fit_BUS_IND_NII_PRA2016.Rdata</t>
+  </si>
+  <si>
+    <t>label_mod</t>
+  </si>
+  <si>
+    <t>nam_mod</t>
+  </si>
+  <si>
+    <t>BUS_IND_NII_VOL</t>
+  </si>
+  <si>
+    <t>BUS_IND_NII_NIM</t>
+  </si>
+  <si>
+    <t>BUS_IND_FEE_InvBank</t>
+  </si>
+  <si>
+    <t>BUS_IND_EXPENSE_Salary</t>
+  </si>
+  <si>
+    <t>BUS_IND_NII</t>
+  </si>
+  <si>
+    <t>L&amp;A Volume</t>
+  </si>
+  <si>
+    <t>L&amp;A NIM</t>
+  </si>
+  <si>
+    <t>Fee IB</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>L&amp;A NII</t>
   </si>
 </sst>
 </file>
@@ -466,7 +502,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -499,41 +535,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A7" sqref="A7:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
         <v>17</v>
       </c>
     </row>
